--- a/CP.xlsx
+++ b/CP.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\CP\CP-LUV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\CP-LUV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F473EB48-FBBF-4142-BD2E-A0327DBC1634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576F1DF9-C6E3-4E4D-8F9F-AF88DD917188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ED37D45D-0004-4424-9D9E-5BAD58999E9C}"/>
   </bookViews>
@@ -393,7 +393,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -409,6 +409,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,7 +458,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -475,7 +481,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -796,7 +808,7 @@
   <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="D4" sqref="A4:D4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -824,7 +836,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -870,48 +882,48 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="C5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
+      <c r="C6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -925,7 +937,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -939,7 +951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -953,7 +965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -967,7 +979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -981,7 +993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -995,7 +1007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1009,7 +1021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1023,7 +1035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1037,7 +1049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1051,7 +1063,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1065,7 +1077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1079,7 +1091,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1093,7 +1105,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1107,7 +1119,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1121,7 +1133,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1135,7 +1147,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1149,7 +1161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1163,7 +1175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1177,7 +1189,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1191,7 +1203,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1205,7 +1217,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1219,7 +1231,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1233,7 +1245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -1247,7 +1259,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>31</v>
       </c>

--- a/CP.xlsx
+++ b/CP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\CP-LUV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576F1DF9-C6E3-4E4D-8F9F-AF88DD917188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F14C5A-BDC5-4DF4-8708-0BAD210521F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ED37D45D-0004-4424-9D9E-5BAD58999E9C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="108">
   <si>
     <t>ID</t>
   </si>
@@ -357,6 +357,9 @@
   </si>
   <si>
     <t>Sometimes Naïve approach is best</t>
+  </si>
+  <si>
+    <t>Revise Moduli use once vis this</t>
   </si>
 </sst>
 </file>
@@ -393,7 +396,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -415,6 +418,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,7 +467,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -488,6 +497,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -807,8 +822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7293242E-B6A8-4E8F-A1E5-3EC9B9FBA1B8}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="91" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -924,114 +939,117 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="C8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="C9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="C10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="C11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="C12" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="C13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
+      <c r="A14" s="11">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="2">
-        <v>4</v>
+      <c r="C14" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="11">
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
+      <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="2">
+      <c r="C15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="6">
         <v>2</v>
       </c>
     </row>

--- a/CP.xlsx
+++ b/CP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\CP-LUV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F14C5A-BDC5-4DF4-8708-0BAD210521F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06932FEA-290D-4109-AD79-E64C2AA143FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ED37D45D-0004-4424-9D9E-5BAD58999E9C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="109">
   <si>
     <t>ID</t>
   </si>
@@ -360,6 +360,9 @@
   </si>
   <si>
     <t>Revise Moduli use once vis this</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> solve again</t>
   </si>
 </sst>
 </file>
@@ -396,7 +399,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -418,12 +421,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,7 +464,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -499,12 +496,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -823,7 +815,7 @@
   <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="91" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1023,19 +1015,19 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="11">
+      <c r="A14" s="9">
         <v>13</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="11">
-        <v>4</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="C14" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="9">
+        <v>4</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1054,90 +1046,93 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
+      <c r="C16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
+      <c r="C17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="4">
+        <v>4</v>
+      </c>
+      <c r="E17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="2">
+      <c r="C18" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
+    <row r="19" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="9">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
+      <c r="C19" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="2">
+      <c r="C20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="6">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1151,7 +1146,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1165,7 +1160,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1179,7 +1174,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1193,7 +1188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1207,7 +1202,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1221,7 +1216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1235,7 +1230,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1249,7 +1244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1263,7 +1258,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -1277,7 +1272,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>31</v>
       </c>

--- a/CP.xlsx
+++ b/CP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\CP-LUV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06932FEA-290D-4109-AD79-E64C2AA143FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1385F26D-FDBD-4825-9437-5587C22B319D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ED37D45D-0004-4424-9D9E-5BAD58999E9C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{ED37D45D-0004-4424-9D9E-5BAD58999E9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -814,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7293242E-B6A8-4E8F-A1E5-3EC9B9FBA1B8}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="91" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="91" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1133,30 +1133,30 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="2">
+      <c r="A22" s="6">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="2">
+      <c r="C22" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="2">
+      <c r="A23" s="9">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="2">
+      <c r="C23" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="9">
         <v>4</v>
       </c>
     </row>
@@ -1175,44 +1175,44 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="2">
+      <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="2">
+      <c r="C25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="2">
+      <c r="A26" s="6">
         <v>25</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="2">
+      <c r="C26" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="2">
+      <c r="A27" s="6">
         <v>26</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="2">
+      <c r="C27" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="6">
         <v>3</v>
       </c>
     </row>

--- a/CP.xlsx
+++ b/CP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\CP-LUV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1385F26D-FDBD-4825-9437-5587C22B319D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A098319-AC52-43CF-8350-509095B50B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{ED37D45D-0004-4424-9D9E-5BAD58999E9C}"/>
   </bookViews>
@@ -814,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7293242E-B6A8-4E8F-A1E5-3EC9B9FBA1B8}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="91" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:D27"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="91" workbookViewId="0">
+      <selection activeCell="D36" sqref="A36:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1217,44 +1217,44 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="2">
+      <c r="A28" s="6">
         <v>27</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="2">
+      <c r="C28" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="2">
+      <c r="A29" s="6">
         <v>28</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="2">
+      <c r="C29" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="2">
+      <c r="A30" s="6">
         <v>29</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="2">
+      <c r="C30" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="6">
         <v>2</v>
       </c>
     </row>
@@ -1273,16 +1273,16 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="2">
+      <c r="A32" s="6">
         <v>31</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="2">
+      <c r="C32" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="6">
         <v>3</v>
       </c>
     </row>
@@ -1301,44 +1301,44 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="2">
+      <c r="A34" s="6">
         <v>33</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="2">
+      <c r="C34" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="2">
+      <c r="A35" s="6">
         <v>34</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" s="2">
+      <c r="C35" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="2">
+      <c r="A36" s="6">
         <v>35</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="2">
+      <c r="C36" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="6">
         <v>3</v>
       </c>
     </row>

--- a/CP.xlsx
+++ b/CP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\CP-LUV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A098319-AC52-43CF-8350-509095B50B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853BD1CD-CA40-4307-90F8-F70E5E125F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{ED37D45D-0004-4424-9D9E-5BAD58999E9C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ED37D45D-0004-4424-9D9E-5BAD58999E9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -814,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7293242E-B6A8-4E8F-A1E5-3EC9B9FBA1B8}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="91" workbookViewId="0">
-      <selection activeCell="D36" sqref="A36:D36"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="91" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1161,16 +1161,16 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="2">
+      <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="2">
+      <c r="C24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="4">
         <v>3</v>
       </c>
     </row>
@@ -1343,44 +1343,44 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="2">
+      <c r="A37" s="6">
         <v>36</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" s="2">
+      <c r="C37" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="2">
+      <c r="A38" s="6">
         <v>37</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="2">
+      <c r="C38" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="2">
+      <c r="A39" s="6">
         <v>38</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" s="2">
+      <c r="C39" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="6">
         <v>4</v>
       </c>
     </row>

--- a/CP.xlsx
+++ b/CP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\CP-LUV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853BD1CD-CA40-4307-90F8-F70E5E125F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1E6FF1-03F4-4A14-AF90-F9B3620E62AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ED37D45D-0004-4424-9D9E-5BAD58999E9C}"/>
   </bookViews>
@@ -815,7 +815,7 @@
   <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="91" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1399,30 +1399,30 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="2">
+      <c r="A41" s="6">
         <v>40</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" s="2">
+      <c r="C41" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="2">
+      <c r="A42" s="6">
         <v>41</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D42" s="2">
+      <c r="C42" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="6">
         <v>4</v>
       </c>
     </row>

--- a/CP.xlsx
+++ b/CP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\CP-LUV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1E6FF1-03F4-4A14-AF90-F9B3620E62AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63C4D64-031A-46A3-B0FA-10583D1B2C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ED37D45D-0004-4424-9D9E-5BAD58999E9C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{ED37D45D-0004-4424-9D9E-5BAD58999E9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -814,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7293242E-B6A8-4E8F-A1E5-3EC9B9FBA1B8}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="91" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="91" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1427,58 +1427,58 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="2">
+      <c r="A43" s="6">
         <v>42</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" s="2">
+      <c r="C43" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="2">
+      <c r="A44" s="6">
         <v>43</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44" s="2">
+      <c r="C44" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="2">
+      <c r="A45" s="4">
         <v>44</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45" s="2">
+      <c r="C45" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="2">
+      <c r="A46" s="6">
         <v>45</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D46" s="2">
+      <c r="C46" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="6">
         <v>2</v>
       </c>
     </row>

--- a/CP.xlsx
+++ b/CP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\CP-LUV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63C4D64-031A-46A3-B0FA-10583D1B2C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54AB308-821F-4C03-8BCC-2177DB9DE486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{ED37D45D-0004-4424-9D9E-5BAD58999E9C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ED37D45D-0004-4424-9D9E-5BAD58999E9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="111">
   <si>
     <t>ID</t>
   </si>
@@ -363,6 +363,12 @@
   </si>
   <si>
     <t xml:space="preserve"> solve again</t>
+  </si>
+  <si>
+    <t>Imp Problems</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/977/problem/C</t>
   </si>
 </sst>
 </file>
@@ -464,7 +470,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -497,6 +503,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -812,10 +819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7293242E-B6A8-4E8F-A1E5-3EC9B9FBA1B8}">
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="91" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -824,9 +831,10 @@
     <col min="3" max="3" width="27.21875" customWidth="1"/>
     <col min="4" max="4" width="9.33203125" customWidth="1"/>
     <col min="5" max="5" width="30.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="52.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="52.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -843,7 +851,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -859,8 +867,11 @@
       <c r="E2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -873,8 +884,11 @@
       <c r="D3" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H3" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -888,7 +902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -902,7 +916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -916,7 +930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -930,7 +944,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -944,7 +958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -958,7 +972,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -972,7 +986,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -986,7 +1000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -1000,7 +1014,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -1014,7 +1028,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9">
         <v>13</v>
       </c>
@@ -1031,7 +1045,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -1045,7 +1059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -1511,16 +1525,16 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="2">
+      <c r="A49" s="6">
         <v>48</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D49" s="2">
+      <c r="C49" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="6">
         <v>4</v>
       </c>
     </row>
@@ -2354,6 +2368,7 @@
     <hyperlink ref="B99" r:id="rId98" display="http://codeforces.com/problemset/problem/29/B" xr:uid="{A8BE9B67-DFF4-45DB-92EA-2B507A57B913}"/>
     <hyperlink ref="B100" r:id="rId99" display="http://codeforces.com/problemset/problem/53/B" xr:uid="{389736B6-9059-47F8-BC8B-85EDB4871B10}"/>
     <hyperlink ref="B101" r:id="rId100" display="http://codeforces.com/problemset/problem/393/B" xr:uid="{62528249-E232-4A10-B9A8-28AA4AE5D9E7}"/>
+    <hyperlink ref="H3" r:id="rId101" xr:uid="{7FBBB588-1182-4E48-AB1F-C93B7C03B539}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CP.xlsx
+++ b/CP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\CP-LUV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54AB308-821F-4C03-8BCC-2177DB9DE486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E765AF2-EC84-443A-AC6D-1779569EC527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ED37D45D-0004-4424-9D9E-5BAD58999E9C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="113">
   <si>
     <t>ID</t>
   </si>
@@ -369,6 +369,12 @@
   </si>
   <si>
     <t>https://codeforces.com/contest/977/problem/C</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/479/problem/C</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/1324/D</t>
   </si>
 </sst>
 </file>
@@ -822,7 +828,7 @@
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -831,7 +837,7 @@
     <col min="3" max="3" width="27.21875" customWidth="1"/>
     <col min="4" max="4" width="9.33203125" customWidth="1"/>
     <col min="5" max="5" width="30.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="43.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="48.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="52.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -901,6 +907,9 @@
       <c r="D4" s="6">
         <v>3</v>
       </c>
+      <c r="H4" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
@@ -914,6 +923,9 @@
       </c>
       <c r="D5" s="6">
         <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">

--- a/CP.xlsx
+++ b/CP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\CP-LUV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E765AF2-EC84-443A-AC6D-1779569EC527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5CA676-101F-4DAF-90C5-E4FC659027FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ED37D45D-0004-4424-9D9E-5BAD58999E9C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="114">
   <si>
     <t>ID</t>
   </si>
@@ -375,6 +375,9 @@
   </si>
   <si>
     <t>https://codeforces.com/problemset/problem/1324/D</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1526/problem/B</t>
   </si>
 </sst>
 </file>
@@ -828,7 +831,7 @@
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H11" sqref="H11:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -928,7 +931,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -940,6 +943,9 @@
       </c>
       <c r="D6" s="6">
         <v>3</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
@@ -2381,6 +2387,7 @@
     <hyperlink ref="B100" r:id="rId99" display="http://codeforces.com/problemset/problem/53/B" xr:uid="{389736B6-9059-47F8-BC8B-85EDB4871B10}"/>
     <hyperlink ref="B101" r:id="rId100" display="http://codeforces.com/problemset/problem/393/B" xr:uid="{62528249-E232-4A10-B9A8-28AA4AE5D9E7}"/>
     <hyperlink ref="H3" r:id="rId101" xr:uid="{7FBBB588-1182-4E48-AB1F-C93B7C03B539}"/>
+    <hyperlink ref="H6" r:id="rId102" xr:uid="{2A294D14-C531-43FD-B460-8FFCF346933B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
